--- a/outputs-HGR-r202/f__Staphylococcaceae.xlsx
+++ b/outputs-HGR-r202/f__Staphylococcaceae.xlsx
@@ -722,7 +722,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>g__Staphylococcus(reject)</t>
+          <t>g__Staphylococcus</t>
         </is>
       </c>
     </row>
@@ -878,7 +878,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>g__Staphylococcus(reject)</t>
+          <t>g__Staphylococcus</t>
         </is>
       </c>
     </row>
@@ -982,7 +982,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>g__Staphylococcus(reject)</t>
+          <t>g__Staphylococcus</t>
         </is>
       </c>
     </row>
@@ -1112,7 +1112,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>g__Staphylococcus(reject)</t>
+          <t>g__Staphylococcus</t>
         </is>
       </c>
     </row>
@@ -1190,7 +1190,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>g__Staphylococcus(reject)</t>
+          <t>g__Staphylococcus</t>
         </is>
       </c>
     </row>
@@ -1294,7 +1294,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>g__Staphylococcus(reject)</t>
+          <t>g__Staphylococcus</t>
         </is>
       </c>
     </row>
@@ -1346,7 +1346,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>g__Staphylococcus(reject)</t>
+          <t>g__Staphylococcus</t>
         </is>
       </c>
     </row>

--- a/outputs-HGR-r202/f__Staphylococcaceae.xlsx
+++ b/outputs-HGR-r202/f__Staphylococcaceae.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,6 +460,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -481,6 +486,11 @@
           <t>g__Staphylococcus</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>g__Staphylococcus</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -502,6 +512,11 @@
           <t>g__Staphylococcus</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>g__Staphylococcus</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -523,6 +538,11 @@
           <t>g__Staphylococcus</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>g__Staphylococcus</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -544,6 +564,11 @@
           <t>g__Staphylococcus</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>g__Staphylococcus</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -565,6 +590,11 @@
           <t>g__Staphylococcus</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>g__Staphylococcus</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -586,6 +616,11 @@
           <t>g__Staphylococcus</t>
         </is>
       </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>g__Staphylococcus</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -607,6 +642,11 @@
           <t>g__Staphylococcus</t>
         </is>
       </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>g__Staphylococcus</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -628,6 +668,11 @@
           <t>g__Staphylococcus</t>
         </is>
       </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>g__Staphylococcus</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -649,6 +694,11 @@
           <t>g__Staphylococcus</t>
         </is>
       </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>g__Staphylococcus</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -670,6 +720,11 @@
           <t>g__Staphylococcus</t>
         </is>
       </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>g__Staphylococcus</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -691,6 +746,11 @@
           <t>g__Staphylococcus</t>
         </is>
       </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>g__Staphylococcus</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -712,6 +772,11 @@
           <t>g__Staphylococcus</t>
         </is>
       </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>g__Staphylococcus</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -733,6 +798,11 @@
           <t>g__Staphylococcus</t>
         </is>
       </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>g__Staphylococcus</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -754,6 +824,11 @@
           <t>g__Staphylococcus</t>
         </is>
       </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>g__Staphylococcus</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -775,6 +850,11 @@
           <t>g__Staphylococcus</t>
         </is>
       </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>g__Staphylococcus</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -796,6 +876,11 @@
           <t>g__Staphylococcus</t>
         </is>
       </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>g__Staphylococcus</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -817,6 +902,11 @@
           <t>g__Staphylococcus</t>
         </is>
       </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>g__Staphylococcus</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -838,6 +928,11 @@
           <t>g__Staphylococcus_A</t>
         </is>
       </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>g__Staphylococcus_A</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -859,6 +954,11 @@
           <t>g__Staphylococcus</t>
         </is>
       </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>g__Staphylococcus</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -880,6 +980,11 @@
           <t>g__Staphylococcus</t>
         </is>
       </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>g__Staphylococcus</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -901,6 +1006,11 @@
           <t>g__Staphylococcus</t>
         </is>
       </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>g__Staphylococcus</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -922,6 +1032,11 @@
           <t>g__Staphylococcus</t>
         </is>
       </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>g__Staphylococcus</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -943,6 +1058,11 @@
           <t>g__Staphylococcus</t>
         </is>
       </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>g__Staphylococcus</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -964,6 +1084,11 @@
           <t>g__Staphylococcus</t>
         </is>
       </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>g__Staphylococcus</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -985,6 +1110,11 @@
           <t>g__Staphylococcus</t>
         </is>
       </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>g__Staphylococcus</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1006,6 +1136,11 @@
           <t>g__Staphylococcus</t>
         </is>
       </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>g__Staphylococcus</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1027,6 +1162,11 @@
           <t>g__Staphylococcus</t>
         </is>
       </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>g__Staphylococcus</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1048,6 +1188,11 @@
           <t>g__Staphylococcus</t>
         </is>
       </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>g__Staphylococcus</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1069,6 +1214,11 @@
           <t>g__Staphylococcus</t>
         </is>
       </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>g__Staphylococcus</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1090,6 +1240,11 @@
           <t>g__Staphylococcus</t>
         </is>
       </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>g__Staphylococcus</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1111,6 +1266,11 @@
           <t>g__Staphylococcus</t>
         </is>
       </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>g__Staphylococcus</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1132,6 +1292,11 @@
           <t>g__Staphylococcus</t>
         </is>
       </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>g__Staphylococcus</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1153,6 +1318,11 @@
           <t>g__Staphylococcus</t>
         </is>
       </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>g__Staphylococcus</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1174,6 +1344,11 @@
           <t>g__Staphylococcus</t>
         </is>
       </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>g__Staphylococcus</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1195,6 +1370,11 @@
           <t>g__Staphylococcus</t>
         </is>
       </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>g__Staphylococcus</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1216,6 +1396,11 @@
           <t>g__Staphylococcus</t>
         </is>
       </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>g__Staphylococcus</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1237,6 +1422,11 @@
           <t>g__Staphylococcus</t>
         </is>
       </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>g__Staphylococcus</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -1258,6 +1448,11 @@
           <t>g__Staphylococcus</t>
         </is>
       </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>g__Staphylococcus</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -1279,6 +1474,11 @@
           <t>g__Staphylococcus</t>
         </is>
       </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>g__Staphylococcus</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -1300,6 +1500,11 @@
           <t>g__Staphylococcus</t>
         </is>
       </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>g__Staphylococcus</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -1321,6 +1526,11 @@
           <t>g__Staphylococcus</t>
         </is>
       </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>g__Staphylococcus</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -1342,6 +1552,11 @@
           <t>g__Staphylococcus</t>
         </is>
       </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>g__Staphylococcus</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -1363,6 +1578,11 @@
           <t>g__Staphylococcus</t>
         </is>
       </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>g__Staphylococcus</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -1384,6 +1604,11 @@
           <t>g__Staphylococcus</t>
         </is>
       </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>g__Staphylococcus</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -1405,6 +1630,11 @@
           <t>g__Staphylococcus</t>
         </is>
       </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>g__Staphylococcus</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -1426,6 +1656,11 @@
           <t>g__Staphylococcus</t>
         </is>
       </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>g__Staphylococcus</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -1447,6 +1682,11 @@
           <t>g__Staphylococcus</t>
         </is>
       </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>g__Staphylococcus</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -1468,6 +1708,11 @@
           <t>g__Staphylococcus</t>
         </is>
       </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>g__Staphylococcus</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -1489,6 +1734,11 @@
           <t>g__Staphylococcus</t>
         </is>
       </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>g__Staphylococcus</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -1506,6 +1756,11 @@
         <v>0.7685396626302161</v>
       </c>
       <c r="E51" t="inlineStr">
+        <is>
+          <t>g__Staphylococcus</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
         <is>
           <t>g__Staphylococcus</t>
         </is>
